--- a/database/raw_data/realtion_db/지점연락처_연락처_업데이트.xlsx
+++ b/database/raw_data/realtion_db/지점연락처_연락처_업데이트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdy\Projects\Project_SK_5\Storage_docs\raw_data_enhanced\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdy\Projects\Narutalk_V003\beta_v0031\database\raw_data\realtion_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72292D8A-3294-4ED6-B6E1-163EBE5A0411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AFDF12-1E29-462F-823E-73A1022CD5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="26880" windowWidth="29040" windowHeight="15720" xr2:uid="{B4D92C26-E110-41C0-B18B-AE3708E26ADD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{B4D92C26-E110-41C0-B18B-AE3708E26ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="지점연락처_연락처_업데이트" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>지점</t>
   </si>
   <si>
-    <t>연락처</t>
-  </si>
-  <si>
     <t>지원본부</t>
   </si>
   <si>
@@ -143,6 +140,10 @@
   </si>
   <si>
     <t>02-3226-6966</t>
+  </si>
+  <si>
+    <t>지점 연락처</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1135,7 +1136,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1157,203 +1158,203 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
